--- a/利润表/688679.xlsx
+++ b/利润表/688679.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -729,48 +729,52 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-12-04 00:00:00</t>
+          <t>2020-12-18 00:00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-06-30 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>27189274.07</v>
+        <v>16759911.2</v>
       </c>
       <c r="P2" t="n">
-        <v>303371650.56</v>
+        <v>422647488.68</v>
       </c>
       <c r="Q2" t="n">
-        <v>279419574.4</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>392756729.05</v>
+      </c>
+      <c r="R2" t="n">
+        <v>40.3130994325</v>
+      </c>
       <c r="S2" t="n">
-        <v>223293752.33</v>
+        <v>305106899.47</v>
       </c>
       <c r="T2" t="n">
-        <v>223293752.33</v>
-      </c>
-      <c r="U2" t="inlineStr"/>
+        <v>305106899.47</v>
+      </c>
+      <c r="U2" t="n">
+        <v>39.1694943121</v>
+      </c>
       <c r="V2" t="n">
-        <v>12417599.33</v>
+        <v>16243638.65</v>
       </c>
       <c r="W2" t="n">
-        <v>26099523.11</v>
+        <v>50217349.71</v>
       </c>
       <c r="X2" t="n">
-        <v>2212582.25</v>
+        <v>3967598.48</v>
       </c>
       <c r="Y2" t="n">
-        <v>28699178.91</v>
+        <v>19444531.92</v>
       </c>
       <c r="Z2" t="n">
-        <v>31026165.25</v>
+        <v>20846338.67</v>
       </c>
       <c r="AA2" t="n">
-        <v>5335948.89</v>
+        <v>4203424.3</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -778,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>2388378.99</v>
+        <v>3094261.29</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -789,19 +793,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>-2.3871529747</v>
+        <v>34.4340118284</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-8.372271730281</v>
+        <v>-43.599449058499</v>
       </c>
       <c r="AR2" t="n">
-        <v>-5.275075182731</v>
+        <v>-46.394312217299</v>
       </c>
       <c r="AS2" t="n">
-        <v>25405516.19</v>
+        <v>15321709.33</v>
       </c>
       <c r="AT2" t="n">
-        <v>-7.987425255968</v>
+        <v>-49.213923251622</v>
       </c>
     </row>
   </sheetData>

--- a/利润表/688679.xlsx
+++ b/利润表/688679.xlsx
@@ -734,47 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2017-12-31 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>16759911.2</v>
+        <v>86560965.73999999</v>
       </c>
       <c r="P2" t="n">
-        <v>422647488.68</v>
+        <v>773816127.41</v>
       </c>
       <c r="Q2" t="n">
-        <v>392756729.05</v>
+        <v>673010630.39</v>
       </c>
       <c r="R2" t="n">
-        <v>40.3130994325</v>
+        <v>29.138228815</v>
       </c>
       <c r="S2" t="n">
-        <v>305106899.47</v>
+        <v>555613136.96</v>
       </c>
       <c r="T2" t="n">
-        <v>305106899.47</v>
+        <v>555613136.96</v>
       </c>
       <c r="U2" t="n">
-        <v>39.1694943121</v>
+        <v>29.6781601625</v>
       </c>
       <c r="V2" t="n">
-        <v>16243638.65</v>
+        <v>24499989.81</v>
       </c>
       <c r="W2" t="n">
-        <v>50217349.71</v>
+        <v>48144239.46</v>
       </c>
       <c r="X2" t="n">
-        <v>3967598.48</v>
+        <v>6561897.44</v>
       </c>
       <c r="Y2" t="n">
-        <v>19444531.92</v>
+        <v>95820603.75</v>
       </c>
       <c r="Z2" t="n">
-        <v>20846338.67</v>
+        <v>98378140.88</v>
       </c>
       <c r="AA2" t="n">
-        <v>4203424.3</v>
+        <v>13974418.19</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>3094261.29</v>
+        <v>7321230.35</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -793,19 +793,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>34.4340118284</v>
+        <v>29.6684964475</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-43.599449058499</v>
+        <v>46.588293496325</v>
       </c>
       <c r="AR2" t="n">
-        <v>-46.394312217299</v>
+        <v>51.613156894881</v>
       </c>
       <c r="AS2" t="n">
-        <v>15321709.33</v>
+        <v>84117681.34</v>
       </c>
       <c r="AT2" t="n">
-        <v>-49.213923251622</v>
+        <v>42.167805114972</v>
       </c>
     </row>
   </sheetData>
